--- a/tp_data.xlsx
+++ b/tp_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Syst</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Twitter</t>
-  </si>
-  <si>
-    <t>Numéro</t>
   </si>
   <si>
     <t>Modèle</t>
@@ -1017,15 +1014,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1047,631 +1044,556 @@
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1396</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>174</v>
+      </c>
+      <c r="E2" s="1">
+        <v>850</v>
+      </c>
+      <c r="F2" s="1">
+        <v>369</v>
+      </c>
+      <c r="G2" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1">
-        <v>1396</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B3" s="1">
+        <v>1721</v>
+      </c>
+      <c r="C3" s="1">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1">
+        <v>180</v>
+      </c>
+      <c r="E3" s="1">
+        <v>965</v>
+      </c>
+      <c r="F3" s="1">
+        <v>415</v>
+      </c>
+      <c r="G3" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1580</v>
+      </c>
+      <c r="C4" s="1">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>170</v>
+      </c>
+      <c r="E4" s="1">
+        <v>970</v>
+      </c>
+      <c r="F4" s="1">
+        <v>395</v>
+      </c>
+      <c r="G4" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1769</v>
+      </c>
+      <c r="C5" s="1">
         <v>90</v>
       </c>
-      <c r="E2" s="1">
-        <v>174</v>
-      </c>
-      <c r="F2" s="1">
-        <v>850</v>
-      </c>
-      <c r="G2" s="1">
-        <v>369</v>
-      </c>
-      <c r="H2" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1721</v>
-      </c>
-      <c r="D3" s="1">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D5" s="1">
         <v>180</v>
       </c>
-      <c r="F3" s="1">
-        <v>965</v>
-      </c>
-      <c r="G3" s="1">
-        <v>415</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="E5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="F5" s="1">
+        <v>440</v>
+      </c>
+      <c r="G5" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2068</v>
+      </c>
+      <c r="C6" s="1">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>446</v>
+      </c>
+      <c r="G6" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1769</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>182</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1060</v>
+      </c>
+      <c r="F7" s="1">
+        <v>424</v>
+      </c>
+      <c r="G7" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2986</v>
+      </c>
+      <c r="C8" s="1">
+        <v>188</v>
+      </c>
+      <c r="D8" s="1">
+        <v>226</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1510</v>
+      </c>
+      <c r="F8" s="1">
+        <v>472</v>
+      </c>
+      <c r="G8" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2675</v>
+      </c>
+      <c r="C9" s="1">
+        <v>177</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1365</v>
+      </c>
+      <c r="F9" s="1">
+        <v>469</v>
+      </c>
+      <c r="G9" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2548</v>
+      </c>
+      <c r="C10" s="1">
+        <v>182</v>
+      </c>
+      <c r="D10" s="1">
+        <v>226</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1350</v>
+      </c>
+      <c r="F10" s="1">
+        <v>471</v>
+      </c>
+      <c r="G10" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1">
+        <v>190</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1255</v>
+      </c>
+      <c r="F11" s="1">
+        <v>473</v>
+      </c>
+      <c r="G11" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1905</v>
+      </c>
+      <c r="C12" s="1">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1">
+        <v>194</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1120</v>
+      </c>
+      <c r="F12" s="1">
+        <v>439</v>
+      </c>
+      <c r="G12" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C13" s="1">
+        <v>115</v>
+      </c>
+      <c r="D13" s="1">
+        <v>185</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1190</v>
+      </c>
+      <c r="F13" s="1">
+        <v>451</v>
+      </c>
+      <c r="G13" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2494</v>
+      </c>
+      <c r="C14" s="1">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1">
+        <v>208</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F14" s="1">
+        <v>432</v>
+      </c>
+      <c r="G14" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C15" s="1">
+        <v>160</v>
+      </c>
+      <c r="D15" s="1">
+        <v>214</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1220</v>
+      </c>
+      <c r="F15" s="1">
+        <v>439</v>
+      </c>
+      <c r="G15" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2933</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1345</v>
+      </c>
+      <c r="F16" s="1">
+        <v>466</v>
+      </c>
+      <c r="G16" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>177</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1265</v>
+      </c>
+      <c r="F17" s="1">
+        <v>436</v>
+      </c>
+      <c r="G17" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1952</v>
+      </c>
+      <c r="C18" s="1">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1430</v>
+      </c>
+      <c r="F18" s="1">
+        <v>436</v>
+      </c>
+      <c r="G18" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="1">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1">
+        <v>149</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1320</v>
+      </c>
+      <c r="F19" s="1">
+        <v>457</v>
+      </c>
+      <c r="G19" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1117</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <v>135</v>
+      </c>
+      <c r="E20" s="1">
+        <v>810</v>
+      </c>
+      <c r="F20" s="1">
+        <v>371</v>
+      </c>
+      <c r="G20" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1116</v>
+      </c>
+      <c r="C21" s="1">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1">
+        <v>145</v>
+      </c>
+      <c r="E21" s="1">
+        <v>780</v>
+      </c>
+      <c r="F21" s="1">
+        <v>364</v>
+      </c>
+      <c r="G21" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
         <v>1580</v>
       </c>
-      <c r="D4" s="1">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1">
-        <v>170</v>
-      </c>
-      <c r="F4" s="1">
-        <v>970</v>
-      </c>
-      <c r="G4" s="1">
-        <v>395</v>
-      </c>
-      <c r="H4" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1769</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1">
-        <v>180</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1080</v>
-      </c>
-      <c r="G5" s="1">
-        <v>440</v>
-      </c>
-      <c r="H5" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2068</v>
-      </c>
-      <c r="D6" s="1">
-        <v>88</v>
-      </c>
-      <c r="E6" s="1">
-        <v>180</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1135</v>
-      </c>
-      <c r="G6" s="1">
-        <v>446</v>
-      </c>
-      <c r="H6" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1769</v>
-      </c>
-      <c r="D7" s="1">
-        <v>90</v>
-      </c>
-      <c r="E7" s="1">
-        <v>182</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1060</v>
-      </c>
-      <c r="G7" s="1">
-        <v>424</v>
-      </c>
-      <c r="H7" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2986</v>
-      </c>
-      <c r="D8" s="1">
-        <v>188</v>
-      </c>
-      <c r="E8" s="1">
-        <v>226</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1510</v>
-      </c>
-      <c r="G8" s="1">
-        <v>472</v>
-      </c>
-      <c r="H8" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2675</v>
-      </c>
-      <c r="D9" s="1">
-        <v>177</v>
-      </c>
-      <c r="E9" s="1">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1365</v>
-      </c>
-      <c r="G9" s="1">
-        <v>469</v>
-      </c>
-      <c r="H9" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2548</v>
-      </c>
-      <c r="D10" s="1">
-        <v>182</v>
-      </c>
-      <c r="E10" s="1">
-        <v>226</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1350</v>
-      </c>
-      <c r="G10" s="1">
-        <v>471</v>
-      </c>
-      <c r="H10" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>122</v>
-      </c>
-      <c r="E11" s="1">
-        <v>190</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1255</v>
-      </c>
-      <c r="G11" s="1">
-        <v>473</v>
-      </c>
-      <c r="H11" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1905</v>
-      </c>
-      <c r="D12" s="1">
-        <v>125</v>
-      </c>
-      <c r="E12" s="1">
-        <v>194</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1120</v>
-      </c>
-      <c r="G12" s="1">
-        <v>439</v>
-      </c>
-      <c r="H12" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1993</v>
-      </c>
-      <c r="D13" s="1">
-        <v>115</v>
-      </c>
-      <c r="E13" s="1">
-        <v>185</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1190</v>
-      </c>
-      <c r="G13" s="1">
-        <v>451</v>
-      </c>
-      <c r="H13" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2494</v>
-      </c>
-      <c r="D14" s="1">
-        <v>171</v>
-      </c>
-      <c r="E14" s="1">
-        <v>208</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1300</v>
-      </c>
-      <c r="G14" s="1">
-        <v>432</v>
-      </c>
-      <c r="H14" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1994</v>
-      </c>
-      <c r="D15" s="1">
-        <v>160</v>
-      </c>
-      <c r="E15" s="1">
-        <v>214</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1220</v>
-      </c>
-      <c r="G15" s="1">
-        <v>439</v>
-      </c>
-      <c r="H15" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2933</v>
-      </c>
-      <c r="D16" s="1">
-        <v>150</v>
-      </c>
-      <c r="E16" s="1">
-        <v>200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1345</v>
-      </c>
-      <c r="G16" s="1">
-        <v>466</v>
-      </c>
-      <c r="H16" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1995</v>
-      </c>
-      <c r="D17" s="1">
-        <v>120</v>
-      </c>
-      <c r="E17" s="1">
-        <v>177</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1265</v>
-      </c>
-      <c r="G17" s="1">
-        <v>436</v>
-      </c>
-      <c r="H17" s="1">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1952</v>
-      </c>
-      <c r="D18" s="1">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1">
-        <v>144</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1430</v>
-      </c>
-      <c r="G18" s="1">
-        <v>436</v>
-      </c>
-      <c r="H18" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="1">
-        <v>112</v>
-      </c>
-      <c r="E19" s="1">
-        <v>149</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1320</v>
-      </c>
-      <c r="G19" s="1">
-        <v>457</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="C22" s="1">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1">
+        <v>159</v>
+      </c>
+      <c r="E22" s="1">
+        <v>880</v>
+      </c>
+      <c r="F22" s="1">
+        <v>370</v>
+      </c>
+      <c r="G22" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1294</v>
+      </c>
+      <c r="C23" s="1">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1">
+        <v>189</v>
+      </c>
+      <c r="E23" s="1">
+        <v>805</v>
+      </c>
+      <c r="F23" s="1">
+        <v>370</v>
+      </c>
+      <c r="G23" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1461</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>181</v>
+      </c>
+      <c r="E24" s="1">
+        <v>925</v>
+      </c>
+      <c r="F24" s="1">
+        <v>363</v>
+      </c>
+      <c r="G24" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1294</v>
+      </c>
+      <c r="C25" s="1">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1117</v>
-      </c>
-      <c r="D20" s="1">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1">
-        <v>135</v>
-      </c>
-      <c r="F20" s="1">
-        <v>810</v>
-      </c>
-      <c r="G20" s="1">
-        <v>371</v>
-      </c>
-      <c r="H20" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1116</v>
-      </c>
-      <c r="D21" s="1">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1">
-        <v>145</v>
-      </c>
-      <c r="F21" s="1">
-        <v>780</v>
-      </c>
-      <c r="G21" s="1">
-        <v>364</v>
-      </c>
-      <c r="H21" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1580</v>
-      </c>
-      <c r="D22" s="1">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1">
-        <v>159</v>
-      </c>
-      <c r="F22" s="1">
-        <v>880</v>
-      </c>
-      <c r="G22" s="1">
-        <v>370</v>
-      </c>
-      <c r="H22" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1294</v>
-      </c>
-      <c r="D23" s="1">
-        <v>103</v>
-      </c>
-      <c r="E23" s="1">
-        <v>189</v>
-      </c>
-      <c r="F23" s="1">
-        <v>805</v>
-      </c>
-      <c r="G23" s="1">
-        <v>370</v>
-      </c>
-      <c r="H23" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1461</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" s="1">
-        <v>181</v>
-      </c>
-      <c r="F24" s="1">
-        <v>925</v>
-      </c>
-      <c r="G24" s="1">
-        <v>363</v>
-      </c>
-      <c r="H24" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1294</v>
-      </c>
-      <c r="D25" s="1">
-        <v>95</v>
-      </c>
       <c r="E25" s="1">
-        <v>184</v>
+        <v>730</v>
       </c>
       <c r="F25" s="1">
-        <v>730</v>
+        <v>350</v>
       </c>
       <c r="G25" s="1">
-        <v>350</v>
-      </c>
-      <c r="H25" s="1">
         <v>160</v>
       </c>
     </row>
